--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1712186.075063333</v>
+        <v>-1714773.58626891</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -677,7 +677,7 @@
         <v>296.3356618821742</v>
       </c>
       <c r="I2" t="n">
-        <v>48.0814842140681</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>113.0324549812898</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>204.6565392873045</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.0086695104302</v>
+        <v>110.0402521437542</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>222.2993603346412</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.089742000015</v>
       </c>
       <c r="H3" t="n">
-        <v>90.46872094984357</v>
+        <v>90.4687209498436</v>
       </c>
       <c r="I3" t="n">
-        <v>11.79954938173972</v>
+        <v>11.79954938173981</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>129.8202859453569</v>
+        <v>129.820285945357</v>
       </c>
       <c r="T3" t="n">
         <v>191.0804331905373</v>
@@ -820,10 +820,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>68.38242903072499</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>166.1014899708501</v>
       </c>
       <c r="H4" t="n">
-        <v>145.4278941339733</v>
+        <v>145.4278941339734</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.62837588899015</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>92.33507763978305</v>
+        <v>92.33507763978314</v>
       </c>
       <c r="S4" t="n">
-        <v>191.0879511638283</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.8723165903172</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2159662989849</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>74.02050543551904</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>177.1304232587626</v>
+        <v>23.89865235309015</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,10 +911,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,16 +1060,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>35.00179869008806</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>189.4175735219239</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>44.43736064133465</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>252.1815824390015</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,16 +1348,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>142.0294255915599</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>54.20115166694968</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881313</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1534,7 +1534,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>6.43453821042729</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000774</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576183</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699826</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>241.1435815093804</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>123.9815576456784</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,13 +2056,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>142.357521815827</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784709</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>113.6427030833207</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428175</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428179</v>
+        <v>83.06560892428158</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703262</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>78.91051008678096</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096058</v>
       </c>
       <c r="T31" t="n">
         <v>193.1208028352486</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3314,19 +3314,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1934.296137515408</v>
+        <v>1527.463283136872</v>
       </c>
       <c r="C2" t="n">
-        <v>1565.333620574997</v>
+        <v>1158.50076619646</v>
       </c>
       <c r="D2" t="n">
-        <v>1207.067921968246</v>
+        <v>1158.50076619646</v>
       </c>
       <c r="E2" t="n">
-        <v>821.2796693700018</v>
+        <v>772.712513598216</v>
       </c>
       <c r="F2" t="n">
-        <v>410.2937645803943</v>
+        <v>361.7266088086083</v>
       </c>
       <c r="G2" t="n">
-        <v>410.2937645803943</v>
+        <v>361.7266088086083</v>
       </c>
       <c r="H2" t="n">
-        <v>110.9648131842587</v>
+        <v>62.39765741247264</v>
       </c>
       <c r="I2" t="n">
-        <v>62.39765741247275</v>
+        <v>62.39765741247264</v>
       </c>
       <c r="J2" t="n">
-        <v>237.1001391730312</v>
+        <v>237.1001391730307</v>
       </c>
       <c r="K2" t="n">
-        <v>549.6723906315693</v>
+        <v>549.6723906315683</v>
       </c>
       <c r="L2" t="n">
-        <v>974.3476699529738</v>
+        <v>974.3476699529715</v>
       </c>
       <c r="M2" t="n">
-        <v>1478.55018180827</v>
+        <v>1478.550181808267</v>
       </c>
       <c r="N2" t="n">
-        <v>1995.525025811714</v>
+        <v>1995.52502581171</v>
       </c>
       <c r="O2" t="n">
-        <v>2470.35445007607</v>
+        <v>2470.354450076066</v>
       </c>
       <c r="P2" t="n">
-        <v>2841.109377259757</v>
+        <v>2841.109377259753</v>
       </c>
       <c r="Q2" t="n">
-        <v>3071.358140510237</v>
+        <v>3071.358140510232</v>
       </c>
       <c r="R2" t="n">
-        <v>3119.882870623637</v>
+        <v>3119.882870623632</v>
       </c>
       <c r="S2" t="n">
-        <v>3005.70867367284</v>
+        <v>3119.882870623632</v>
       </c>
       <c r="T2" t="n">
-        <v>2798.984896614957</v>
+        <v>3119.882870623632</v>
       </c>
       <c r="U2" t="n">
-        <v>2545.440785998359</v>
+        <v>3008.731100781456</v>
       </c>
       <c r="V2" t="n">
-        <v>2545.440785998359</v>
+        <v>2677.668213437885</v>
       </c>
       <c r="W2" t="n">
-        <v>2545.440785998359</v>
+        <v>2677.668213437885</v>
       </c>
       <c r="X2" t="n">
-        <v>2320.89597757953</v>
+        <v>2304.202455176805</v>
       </c>
       <c r="Y2" t="n">
-        <v>2320.89597757953</v>
+        <v>1914.063123200994</v>
       </c>
     </row>
     <row r="3">
@@ -4401,31 +4401,31 @@
         <v>165.6989405756882</v>
       </c>
       <c r="H3" t="n">
-        <v>74.31639416170479</v>
+        <v>74.31639416170478</v>
       </c>
       <c r="I3" t="n">
-        <v>62.39765741247275</v>
+        <v>62.39765741247264</v>
       </c>
       <c r="J3" t="n">
-        <v>147.6314117602529</v>
+        <v>272.4615367472572</v>
       </c>
       <c r="K3" t="n">
-        <v>505.1752167419863</v>
+        <v>505.1752167419895</v>
       </c>
       <c r="L3" t="n">
-        <v>852.4686968101803</v>
+        <v>852.468696810183</v>
       </c>
       <c r="M3" t="n">
-        <v>1277.100675446836</v>
+        <v>1277.100675446838</v>
       </c>
       <c r="N3" t="n">
-        <v>1727.380043941864</v>
+        <v>1727.380043941866</v>
       </c>
       <c r="O3" t="n">
         <v>2117.07790170106</v>
       </c>
       <c r="P3" t="n">
-        <v>2410.51172267956</v>
+        <v>2410.511722679561</v>
       </c>
       <c r="Q3" t="n">
         <v>2556.745264694707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1886.063744160326</v>
+        <v>795.7512474232342</v>
       </c>
       <c r="C4" t="n">
-        <v>1717.127561232418</v>
+        <v>626.8150644953273</v>
       </c>
       <c r="D4" t="n">
-        <v>1717.127561232418</v>
+        <v>476.6984250829914</v>
       </c>
       <c r="E4" t="n">
-        <v>1648.054400595322</v>
+        <v>476.6984250829914</v>
       </c>
       <c r="F4" t="n">
-        <v>1648.054400595322</v>
+        <v>476.6984250829914</v>
       </c>
       <c r="G4" t="n">
-        <v>1480.275117796484</v>
+        <v>308.9191422841529</v>
       </c>
       <c r="H4" t="n">
-        <v>1333.378255034895</v>
+        <v>162.0222795225637</v>
       </c>
       <c r="I4" t="n">
-        <v>1333.378255034895</v>
+        <v>62.39765741247264</v>
       </c>
       <c r="J4" t="n">
-        <v>1373.203697426283</v>
+        <v>102.2230998038605</v>
       </c>
       <c r="K4" t="n">
-        <v>1568.485969881408</v>
+        <v>297.5053722589861</v>
       </c>
       <c r="L4" t="n">
-        <v>1873.906479893692</v>
+        <v>602.9258822712693</v>
       </c>
       <c r="M4" t="n">
-        <v>2206.318707680742</v>
+        <v>935.3381100583186</v>
       </c>
       <c r="N4" t="n">
-        <v>2536.26153209073</v>
+        <v>1265.280934468306</v>
       </c>
       <c r="O4" t="n">
-        <v>2825.000837712486</v>
+        <v>1554.020240090063</v>
       </c>
       <c r="P4" t="n">
-        <v>3048.546512699443</v>
+        <v>1777.565915077019</v>
       </c>
       <c r="Q4" t="n">
-        <v>3119.882870623637</v>
+        <v>1848.902273001213</v>
       </c>
       <c r="R4" t="n">
-        <v>3026.615115431937</v>
+        <v>1755.634517809513</v>
       </c>
       <c r="S4" t="n">
-        <v>2833.596982943222</v>
+        <v>1755.634517809513</v>
       </c>
       <c r="T4" t="n">
-        <v>2611.503733862094</v>
+        <v>1755.634517809513</v>
       </c>
       <c r="U4" t="n">
-        <v>2322.396697196452</v>
+        <v>1755.634517809513</v>
       </c>
       <c r="V4" t="n">
-        <v>2067.712208990565</v>
+        <v>1500.950029603626</v>
       </c>
       <c r="W4" t="n">
-        <v>2067.712208990565</v>
+        <v>1426.181842295021</v>
       </c>
       <c r="X4" t="n">
-        <v>2067.712208990565</v>
+        <v>1198.192291397004</v>
       </c>
       <c r="Y4" t="n">
-        <v>2067.712208990565</v>
+        <v>977.3997122534739</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1422.200456328342</v>
+        <v>1238.038871968308</v>
       </c>
       <c r="C5" t="n">
-        <v>1053.23793938793</v>
+        <v>1238.038871968308</v>
       </c>
       <c r="D5" t="n">
-        <v>874.3183199346347</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>488.5300673363904</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>77.54416254678286</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.5121164321834</v>
@@ -4568,13 +4568,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4595,22 +4595,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923658</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W5" t="n">
-        <v>2182.266054653544</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X5" t="n">
-        <v>1808.800296392464</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y5" t="n">
-        <v>1808.800296392464</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="6">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>775.9977502341333</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C7" t="n">
-        <v>607.0615673062264</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D7" t="n">
-        <v>456.9449278938906</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959802</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H7" t="n">
         <v>163.837793613838</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1891.939195876283</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1891.939195876283</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1891.939195876283</v>
       </c>
       <c r="U7" t="n">
-        <v>1705.527932658019</v>
+        <v>1891.939195876283</v>
       </c>
       <c r="V7" t="n">
-        <v>1514.197050312641</v>
+        <v>1637.254707670396</v>
       </c>
       <c r="W7" t="n">
-        <v>1224.779880275681</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="X7" t="n">
-        <v>996.7903293776634</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y7" t="n">
-        <v>775.9977502341333</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1636.624422581789</v>
+        <v>1979.067756754392</v>
       </c>
       <c r="C8" t="n">
-        <v>1636.624422581789</v>
+        <v>1610.105239813981</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>1251.83954120723</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>866.0512886089859</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796418</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="X8" t="n">
-        <v>2277.953133796418</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="Y8" t="n">
-        <v>2023.224262645911</v>
+        <v>2365.667596818514</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>381.1049005553748</v>
+        <v>479.6639240396553</v>
       </c>
       <c r="C10" t="n">
-        <v>381.1049005553748</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="D10" t="n">
-        <v>381.1049005553748</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1326.594608541191</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>1071.910120335304</v>
       </c>
       <c r="W10" t="n">
-        <v>845.4915543310558</v>
+        <v>928.4460540812028</v>
       </c>
       <c r="X10" t="n">
-        <v>617.5020034330385</v>
+        <v>700.4565031831854</v>
       </c>
       <c r="Y10" t="n">
-        <v>562.7533653856145</v>
+        <v>479.6639240396553</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,61 +5027,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637308</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1186.520756890283</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1814.11872044489</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>733.455065717131</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>564.5188827892241</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232835</v>
+        <v>414.4022433768885</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>414.4022433768885</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>267.5122958789781</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>100.3161965938581</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580259</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580259</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1907.987318831766</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1653.302830625879</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1135.896109690901</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>915.1035305473707</v>
       </c>
     </row>
     <row r="14">
@@ -5267,10 +5267,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5279,7 +5279,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5291,19 +5291,19 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2148.043492616111</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>197.0043242297721</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297721</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1983.7822433412</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400708</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400708</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D19" t="n">
-        <v>513.8536007400708</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>365.9405071576778</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>219.0505596597675</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1833.665603928865</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138406</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703105</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,58 +5738,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400703</v>
+        <v>768.5380889459584</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121634</v>
+        <v>599.6019060180515</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121634</v>
+        <v>599.6019060180515</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121634</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121635</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270441</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797745</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648818</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138402</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.50206557031</v>
+        <v>950.1865537761981</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192514</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111707</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6133,25 +6133,25 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121644</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270442</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,13 +6163,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
@@ -6187,7 +6187,7 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y25" t="n">
         <v>695.5020655703109</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400708</v>
+        <v>653.7474797708867</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121639</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121639</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121639</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121639</v>
+        <v>484.8112968429799</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138406</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703105</v>
+        <v>835.3959446011264</v>
       </c>
     </row>
     <row r="29">
@@ -6452,58 +6452,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,16 +6534,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954152</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
         <v>483.8255460380731</v>
@@ -6634,22 +6634,22 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
         <v>1978.840049838286</v>
@@ -6661,7 +6661,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
@@ -6859,22 +6859,22 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
         <v>2639.297491717215</v>
@@ -6929,49 +6929,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
         <v>483.8255460380728</v>
@@ -7111,25 +7111,25 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7312,13 +7312,13 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,16 +7327,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,10 +7345,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
         <v>782.5512955656816</v>
@@ -7558,13 +7558,13 @@
         <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7795,7 +7795,7 @@
         <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7810,7 +7810,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>135.0615335795961</v>
+        <v>8.970498239191301</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>5.747744270113685</v>
+        <v>5.747744270113827</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22550,7 +22550,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>48.08148421406827</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>113.0324549812899</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>204.6565392873045</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>140.9684173666759</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>147.4317403438278</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22708,10 +22708,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>78.05153361584418</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.62837588899009</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,25 +22753,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>191.0879511638284</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.8723165903172</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2159662989849</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>212.5024929010719</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>133.8601746357966</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272792</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891668</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-2.183789724652913e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>63.3683537222862</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>45.04089287986376</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>41.54258064659041</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>143.8269525734171</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>32.79125956324852</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.2291039219421</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194264</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1301803.606909219</v>
+        <v>1301803.60690922</v>
       </c>
     </row>
     <row r="6">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99467.00901045141</v>
+        <v>99467.00901045137</v>
       </c>
       <c r="C2" t="n">
         <v>123156.2654796425</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1271067.297476341</v>
+        <v>1271067.297476339</v>
       </c>
       <c r="C3" t="n">
-        <v>54832.77288023812</v>
+        <v>54832.77288023959</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.765727120073279e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>204074.6584503627</v>
+        <v>204074.6584503624</v>
       </c>
       <c r="K3" t="n">
-        <v>32664.34410594292</v>
+        <v>32664.34410594322</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.7179936318</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13682.85454400351</v>
+        <v>13682.85454400359</v>
       </c>
       <c r="C4" t="n">
         <v>90354.06702314483</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314471</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
+        <v>11167.03225179352</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11167.03225179346</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11167.03225179343</v>
+      </c>
+      <c r="I4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="G4" t="n">
-        <v>11167.03225179351</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11167.03225179353</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11167.03225179353</v>
-      </c>
       <c r="J4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179346</v>
       </c>
       <c r="K4" t="n">
-        <v>19157.89151488698</v>
+        <v>19157.89151488696</v>
       </c>
       <c r="L4" t="n">
         <v>19157.89151488698</v>
       </c>
       <c r="M4" t="n">
-        <v>19157.89151488694</v>
+        <v>19157.89151488699</v>
       </c>
       <c r="N4" t="n">
         <v>19157.89151488699</v>
       </c>
       <c r="O4" t="n">
-        <v>19157.891514887</v>
+        <v>19157.89151488697</v>
       </c>
       <c r="P4" t="n">
-        <v>19157.89151488698</v>
+        <v>19157.89151488699</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>103892.0286120431</v>
+        <v>103892.028612043</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26476,13 +26476,13 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1289175.171621936</v>
+        <v>-1289569.992563087</v>
       </c>
       <c r="C6" t="n">
-        <v>-129964.5149851337</v>
+        <v>-129964.5149851352</v>
       </c>
       <c r="D6" t="n">
-        <v>-75131.7421048956</v>
+        <v>-75131.74210489572</v>
       </c>
       <c r="E6" t="n">
-        <v>-316630.0339295549</v>
+        <v>-316664.7718549908</v>
       </c>
       <c r="F6" t="n">
-        <v>8782.427877800292</v>
+        <v>8747.689952364555</v>
       </c>
       <c r="G6" t="n">
-        <v>8782.427877800277</v>
+        <v>8747.689952364584</v>
       </c>
       <c r="H6" t="n">
-        <v>8782.427877800234</v>
+        <v>8747.689952364628</v>
       </c>
       <c r="I6" t="n">
-        <v>8782.427877800219</v>
+        <v>8747.689952364541</v>
       </c>
       <c r="J6" t="n">
-        <v>-195292.2305725625</v>
+        <v>-195326.9684979978</v>
       </c>
       <c r="K6" t="n">
-        <v>-31830.08599510285</v>
+        <v>-31830.0859951031</v>
       </c>
       <c r="L6" t="n">
-        <v>834.2581108401355</v>
+        <v>834.2581108400773</v>
       </c>
       <c r="M6" t="n">
-        <v>-84220.76982467169</v>
+        <v>-84220.7698246717</v>
       </c>
       <c r="N6" t="n">
-        <v>834.2581108401355</v>
+        <v>834.2581108401064</v>
       </c>
       <c r="O6" t="n">
-        <v>834.2581108400918</v>
+        <v>834.2581108401209</v>
       </c>
       <c r="P6" t="n">
-        <v>-18593.45988279165</v>
+        <v>-18593.45988279169</v>
       </c>
     </row>
   </sheetData>
@@ -26713,7 +26713,7 @@
         <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
         <v>24.28464749203969</v>
@@ -26722,7 +26722,7 @@
         <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203972</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1047.807751310266</v>
+        <v>1047.807751310265</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,40 +26787,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>779.9707176559093</v>
+        <v>779.9707176559079</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1047.807751310266</v>
+        <v>1047.807751310265</v>
       </c>
       <c r="C3" t="n">
-        <v>41.96894928303254</v>
+        <v>41.96894928303368</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>779.9707176559093</v>
+        <v>779.9707176559079</v>
       </c>
       <c r="C4" t="n">
-        <v>51.43073774638322</v>
+        <v>51.43073774638458</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>779.9707176559093</v>
+        <v>779.9707176559079</v>
       </c>
       <c r="K4" t="n">
-        <v>51.43073774638322</v>
+        <v>51.43073774638435</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>779.9707176559093</v>
+        <v>779.9707176559079</v>
       </c>
       <c r="K4" t="n">
-        <v>51.43073774638322</v>
+        <v>51.43073774638458</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>177.5526183619203</v>
+        <v>330.7843892675928</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,16 +27780,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>53.93035397995927</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>62.72006980190415</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>362.4386851003768</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>134.056356217052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>144.4935727450311</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>164.3835016851451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-2.729336756601696e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>9.05230024272896e-12</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-1.085324384439866e-12</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.212292467578955</v>
+        <v>4.21229246757895</v>
       </c>
       <c r="H2" t="n">
-        <v>43.13914023359298</v>
+        <v>43.13914023359293</v>
       </c>
       <c r="I2" t="n">
-        <v>162.3944053563378</v>
+        <v>162.3944053563376</v>
       </c>
       <c r="J2" t="n">
-        <v>357.5130578201797</v>
+        <v>357.5130578201793</v>
       </c>
       <c r="K2" t="n">
-        <v>535.8193979727969</v>
+        <v>535.8193979727963</v>
       </c>
       <c r="L2" t="n">
-        <v>664.7313435774664</v>
+        <v>664.7313435774657</v>
       </c>
       <c r="M2" t="n">
-        <v>739.6416997477736</v>
+        <v>739.6416997477728</v>
       </c>
       <c r="N2" t="n">
-        <v>751.6098757212824</v>
+        <v>751.6098757212816</v>
       </c>
       <c r="O2" t="n">
-        <v>709.7238924967942</v>
+        <v>709.7238924967934</v>
       </c>
       <c r="P2" t="n">
-        <v>605.7329222034386</v>
+        <v>605.732922203438</v>
       </c>
       <c r="Q2" t="n">
-        <v>454.8801982082671</v>
+        <v>454.8801982082667</v>
       </c>
       <c r="R2" t="n">
-        <v>264.6004167165568</v>
+        <v>264.6004167165565</v>
       </c>
       <c r="S2" t="n">
-        <v>95.98761460495552</v>
+        <v>95.98761460495543</v>
       </c>
       <c r="T2" t="n">
-        <v>18.43931027682688</v>
+        <v>18.43931027682686</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3369833974063163</v>
+        <v>0.3369833974063159</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.253775163195666</v>
+        <v>2.253775163195664</v>
       </c>
       <c r="H3" t="n">
-        <v>21.76672328665288</v>
+        <v>21.76672328665286</v>
       </c>
       <c r="I3" t="n">
-        <v>77.59708346967535</v>
+        <v>77.59708346967527</v>
       </c>
       <c r="J3" t="n">
-        <v>212.9323280280607</v>
+        <v>212.9323280280605</v>
       </c>
       <c r="K3" t="n">
-        <v>363.9352639621704</v>
+        <v>363.93526396217</v>
       </c>
       <c r="L3" t="n">
-        <v>489.355874798252</v>
+        <v>489.3558747982515</v>
       </c>
       <c r="M3" t="n">
-        <v>571.0552244640947</v>
+        <v>571.0552244640942</v>
       </c>
       <c r="N3" t="n">
-        <v>586.1693570278062</v>
+        <v>586.1693570278055</v>
       </c>
       <c r="O3" t="n">
-        <v>536.2304442012074</v>
+        <v>536.2304442012069</v>
       </c>
       <c r="P3" t="n">
-        <v>430.3722063825128</v>
+        <v>430.3722063825123</v>
       </c>
       <c r="Q3" t="n">
-        <v>287.6924225861696</v>
+        <v>287.6924225861693</v>
       </c>
       <c r="R3" t="n">
-        <v>139.9317596938503</v>
+        <v>139.9317596938501</v>
       </c>
       <c r="S3" t="n">
-        <v>41.86288515848087</v>
+        <v>41.86288515848083</v>
       </c>
       <c r="T3" t="n">
-        <v>9.084295504284283</v>
+        <v>9.084295504284272</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1482746817891886</v>
+        <v>0.1482746817891885</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.889489387608676</v>
+        <v>1.889489387608674</v>
       </c>
       <c r="H4" t="n">
-        <v>16.79927837346624</v>
+        <v>16.79927837346622</v>
       </c>
       <c r="I4" t="n">
-        <v>56.82209903826819</v>
+        <v>56.82209903826814</v>
       </c>
       <c r="J4" t="n">
-        <v>133.5868997039334</v>
+        <v>133.5868997039332</v>
       </c>
       <c r="K4" t="n">
-        <v>219.5243124876261</v>
+        <v>219.5243124876258</v>
       </c>
       <c r="L4" t="n">
-        <v>280.9155404086572</v>
+        <v>280.9155404086569</v>
       </c>
       <c r="M4" t="n">
-        <v>296.1860500957854</v>
+        <v>296.186050095785</v>
       </c>
       <c r="N4" t="n">
-        <v>289.1434078328805</v>
+        <v>289.1434078328803</v>
       </c>
       <c r="O4" t="n">
-        <v>267.0707363503609</v>
+        <v>267.0707363503606</v>
       </c>
       <c r="P4" t="n">
-        <v>228.5251528431438</v>
+        <v>228.5251528431435</v>
       </c>
       <c r="Q4" t="n">
-        <v>158.2189704478501</v>
+        <v>158.21897044785</v>
       </c>
       <c r="R4" t="n">
-        <v>84.95831373738643</v>
+        <v>84.95831373738635</v>
       </c>
       <c r="S4" t="n">
-        <v>32.92864687314391</v>
+        <v>32.92864687314388</v>
       </c>
       <c r="T4" t="n">
-        <v>8.073272837964339</v>
+        <v>8.07327283796433</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1030630575059279</v>
+        <v>0.1030630575059278</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>303.4297552732313</v>
+        <v>225.4828684302367</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>188.4731159523455</v>
+        <v>551.7051287319844</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>573.8098963904297</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>746.4857620875799</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>688.8020111197787</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,16 +33263,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236522</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>176.4671532934934</v>
+        <v>176.467153293493</v>
       </c>
       <c r="K2" t="n">
-        <v>315.7295469278163</v>
+        <v>315.7295469278158</v>
       </c>
       <c r="L2" t="n">
-        <v>428.9649286074792</v>
+        <v>428.9649286074785</v>
       </c>
       <c r="M2" t="n">
-        <v>509.2954665205009</v>
+        <v>509.2954665205001</v>
       </c>
       <c r="N2" t="n">
-        <v>522.1968121246914</v>
+        <v>522.1968121246907</v>
       </c>
       <c r="O2" t="n">
-        <v>479.6256810751074</v>
+        <v>479.6256810751066</v>
       </c>
       <c r="P2" t="n">
-        <v>374.4999264481691</v>
+        <v>374.4999264481684</v>
       </c>
       <c r="Q2" t="n">
-        <v>232.5745083338176</v>
+        <v>232.5745083338172</v>
       </c>
       <c r="R2" t="n">
-        <v>49.01487890242464</v>
+        <v>49.01487890242436</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>86.09470136139404</v>
+        <v>212.1857367018027</v>
       </c>
       <c r="K3" t="n">
-        <v>361.1553585674075</v>
+        <v>235.0643232270023</v>
       </c>
       <c r="L3" t="n">
-        <v>350.8014950183778</v>
+        <v>350.8014950183773</v>
       </c>
       <c r="M3" t="n">
-        <v>428.9211905420764</v>
+        <v>428.9211905420759</v>
       </c>
       <c r="N3" t="n">
-        <v>454.8276449444729</v>
+        <v>454.8276449444722</v>
       </c>
       <c r="O3" t="n">
-        <v>393.634199756763</v>
+        <v>393.6341997567624</v>
       </c>
       <c r="P3" t="n">
-        <v>296.3977989681825</v>
+        <v>296.3977989681821</v>
       </c>
       <c r="Q3" t="n">
-        <v>147.7106485001481</v>
+        <v>147.7106485001478</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>40.22771958726059</v>
+        <v>40.22771958726045</v>
       </c>
       <c r="K4" t="n">
-        <v>197.2548206617433</v>
+        <v>197.254820661743</v>
       </c>
       <c r="L4" t="n">
-        <v>308.5055656689733</v>
+        <v>308.505565668973</v>
       </c>
       <c r="M4" t="n">
-        <v>335.769927057626</v>
+        <v>335.7699270576256</v>
       </c>
       <c r="N4" t="n">
-        <v>333.2755802121092</v>
+        <v>333.2755802121088</v>
       </c>
       <c r="O4" t="n">
-        <v>291.6558642644006</v>
+        <v>291.6558642644003</v>
       </c>
       <c r="P4" t="n">
-        <v>225.8037121080372</v>
+        <v>225.803712108037</v>
       </c>
       <c r="Q4" t="n">
-        <v>72.05692719615574</v>
+        <v>72.05692719615557</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>160.8335108287869</v>
+        <v>82.88662398579233</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>45.87687150790109</v>
+        <v>409.1088842875399</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>431.6758624684114</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>615.1440500042467</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,16 +36440,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>546.2057666753343</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,13 +36914,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36990,25 +36990,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683826</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394655</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,13 +37938,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
